--- a/Q_issues_dec22.xlsx
+++ b/Q_issues_dec22.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkharms/Documents/Research/AK/ResilienceSERDP/SERDP full/data/DoD_Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karen Jorgenson\Documents\Github\DoD_Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE344FD1-5CD4-A241-AE46-573F4F238DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE3F583-3EF4-4A42-BE9B-D5652110908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32140" yWindow="8540" windowWidth="24840" windowHeight="13440" xr2:uid="{F252FA32-495F-CD46-8D2F-3DCB70D2A2E4}"/>
+    <workbookView xWindow="840" yWindow="735" windowWidth="17250" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Site</t>
   </si>
@@ -80,6 +70,152 @@
   </si>
   <si>
     <t>variable time intervals</t>
+  </si>
+  <si>
+    <t>Install Stream 1 @ 05/10/2019 12:26
+Install Stream 2 @ 5/14/2019 11:30</t>
+  </si>
+  <si>
+    <t>No time listed, but last in book for poker is 10/17/2019. Ice listed as on channel.</t>
+  </si>
+  <si>
+    <t>10/16/2019 10:30 for both? Ice listed as on channel.</t>
+  </si>
+  <si>
+    <t>First good sonde: 06/04/2020 14:30</t>
+  </si>
+  <si>
+    <t>First good sonde: 06/05/2020 16:00</t>
+  </si>
+  <si>
+    <t>Install/deploy (both?) @ 6/11/2020 12:45</t>
+  </si>
+  <si>
+    <t>Install/deploy (both?) @ 6/15/2020 17:30</t>
+  </si>
+  <si>
+    <t>Install Stream 1 @ 6/17/2020 16:30
+Install Stream 2 @ 6/17/2020 16:30</t>
+  </si>
+  <si>
+    <t>Install Stream 1 @ 5/21/2019 12:30
+Install Stream 2 @ 5/21/2019 13:00</t>
+  </si>
+  <si>
+    <t>10/14/2020 ~12:30 for both? No PT time listed. Ice listed as on channel and PT frozen.</t>
+  </si>
+  <si>
+    <t>10/14/2020 17:00. No note of PT, just all sensors at 17:00</t>
+  </si>
+  <si>
+    <t>10/15/2020. PTs taken, no time listed. Grab at 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/14/2020 Everything taken, no time listed. Grab at 16:15
+Book says 10/14/20, written after FRCH 10/15/20 day.
+I am incliend to belive the date might have been written wrong. </t>
+  </si>
+  <si>
+    <t>10/13/2020 13:30 last good. No PT mentioned. Channel listed as frozen with some flow.</t>
+  </si>
+  <si>
+    <t>NotebookStart Notes</t>
+  </si>
+  <si>
+    <t>NotebookEnd Notes</t>
+  </si>
+  <si>
+    <t>Site instal 5/4/21. No PT listed, PAR +RAIN start @17:00</t>
+  </si>
+  <si>
+    <t>Site instal 5/4/21. No PT listed, PAR start @17:00. Ice on channel</t>
+  </si>
+  <si>
+    <t>Install/deploy LEFT PT @ 5/7/2021 17:00</t>
+  </si>
+  <si>
+    <t>Install/deploy (both) @ 5/6/2021 17:00</t>
+  </si>
+  <si>
+    <t>Install/deploy (both) @ 5/13/2021 @ 17:00</t>
+  </si>
+  <si>
+    <t>Last good @ 9/27/2021 16:00. No PT mentioned, just all sensors.</t>
+  </si>
+  <si>
+    <t>9/28/2021 10:15 for both PTs. One PT listed as having no data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2021 13:00 for both PTs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/29/2021 14:00 for both PTs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/30/2021 13:30 for both PTs. </t>
+  </si>
+  <si>
+    <t>5/10/2022 13:15 first good all sensors</t>
+  </si>
+  <si>
+    <t>5/09/2022 13:15 first good all sensors</t>
+  </si>
+  <si>
+    <t>5/11/2022 13:30 first good PT</t>
+  </si>
+  <si>
+    <t>6/2/2022 13:15 first good both PT</t>
+  </si>
+  <si>
+    <t>Install Left PT @ 5/25/2022 11:15
+Install Right PT @ 6/6/2022 10:40</t>
+  </si>
+  <si>
+    <t>10/10/2022 10:25 for both PTs</t>
+  </si>
+  <si>
+    <t>10/10/2022 Last good all sensors 12:25. No PT time listed</t>
+  </si>
+  <si>
+    <t>10/11/2022 Last good all sensors 14:30. No PT time listed</t>
+  </si>
+  <si>
+    <t>10/08/2022 Last good all sensors 14:15. No PT time listed</t>
+  </si>
+  <si>
+    <t>10/07/2022 Last good all sensors 10:45. No PT time listed</t>
+  </si>
+  <si>
+    <t>Install US @ 05/30/2018 10:55
+Install DS @ 05/30/2018 10:00</t>
+  </si>
+  <si>
+    <t>Install US @ 05/30/2018 15:03
+Install DS @ 05/30/2018 ~15:10</t>
+  </si>
+  <si>
+    <t>Removed PT 10/26/2018 11:30</t>
+  </si>
+  <si>
+    <t>Removed PT 10/12/2018. No PT time listed. Grab @ 9:35</t>
+  </si>
+  <si>
+    <t>Install day on 5/14/2015.  No times listed</t>
+  </si>
+  <si>
+    <t>Breakdown day on 9/21/2015.  No times listed</t>
+  </si>
+  <si>
+    <t>Karen notes</t>
+  </si>
+  <si>
+    <t>Water level data ends at 2021-09-28 02:30:00 before clipping</t>
+  </si>
+  <si>
+    <t>Pressure data was below 100 (out of water) before 5/18</t>
+  </si>
+  <si>
+    <t>Pressure data was below 100 (out of water) before 5/20</t>
   </si>
 </sst>
 </file>
@@ -115,9 +251,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,20 +571,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC06AFD9-33E4-0F47-86B5-A403BF7F11C4}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +604,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -474,8 +627,17 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -488,8 +650,17 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -502,8 +673,14 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -516,8 +693,14 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -530,8 +713,14 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -544,8 +733,14 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -561,8 +756,14 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -578,8 +779,14 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -595,8 +802,14 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -612,8 +825,14 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -629,8 +848,14 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -646,8 +871,14 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -663,8 +894,17 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -674,8 +914,14 @@
       <c r="C15" s="1">
         <v>44322.041666666664</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -691,8 +937,14 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -708,8 +960,14 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -722,8 +980,14 @@
       <c r="E18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -736,8 +1000,14 @@
       <c r="E19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -750,8 +1020,14 @@
       <c r="E20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -764,8 +1040,14 @@
       <c r="E21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -777,6 +1059,12 @@
       </c>
       <c r="E22" t="s">
         <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Q_issues_dec22.xlsx
+++ b/Q_issues_dec22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karen Jorgenson\Documents\Github\DoD_Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE3F583-3EF4-4A42-BE9B-D5652110908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7470EEFA-0549-48ED-82BB-FF210D472A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="735" windowWidth="17250" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="840" windowWidth="17250" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Site</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Pressure data was below 100 (out of water) before 5/20</t>
+  </si>
+  <si>
+    <t>Raw data in 30 min intervals</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -679,6 +682,9 @@
       <c r="I4" t="s">
         <v>54</v>
       </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -698,6 +704,9 @@
       </c>
       <c r="I5" t="s">
         <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
